--- a/munkanaplo - 80 nap alatt a webterv körül.xlsx
+++ b/munkanaplo - 80 nap alatt a webterv körül.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmark\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE80257-A576-43AC-A00F-EEE489E0EF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Munkanaplo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>Munkanapló</t>
   </si>
@@ -182,7 +173,7 @@
     <t>Szintén üres tagek fordultak elő, illetve a section valamilyen címet követelt.</t>
   </si>
   <si>
-    <t>2025. március 24. 21:41</t>
+    <t>2024. március 24. 21:41</t>
   </si>
   <si>
     <t>Footer hozzáadása a számolós oldalt leszámítva mindenhova</t>
@@ -191,42 +182,105 @@
     <t>&lt;p&gt; tagek használata mellett volt egy kiküszöbölendő probléma, megoldása egy új "class" bevezetése volt</t>
   </si>
   <si>
-    <t>2026. március 24. 21:43</t>
+    <t>2024. március 24. 21:43</t>
   </si>
   <si>
     <t>Módosítások utáni validálás</t>
   </si>
   <si>
     <t>Örömmel jelentem, sehol validálási hiba. 1.mérföldkő feltöltésre kész!</t>
+  </si>
+  <si>
+    <t>2024. április 19. 1:12</t>
+  </si>
+  <si>
+    <t>Bejelentkezés megvalósítása</t>
+  </si>
+  <si>
+    <t>Sütikezelés</t>
+  </si>
+  <si>
+    <t>2024. április 19. 2:31</t>
+  </si>
+  <si>
+    <t>Egy JSON fájlba írja a felvitt méréseket tömbelemként</t>
+  </si>
+  <si>
+    <t>2024. április 19. 2:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Korábbi mérések megjelennek a korabbiak.php oldalon</t>
+  </si>
+  <si>
+    <t>Asszociatív tömb elemeire való hivatkozás itt még nehezen sikerült</t>
+  </si>
+  <si>
+    <t>2024. április 19. 3:05</t>
+  </si>
+  <si>
+    <t>Jelszó módosítás</t>
+  </si>
+  <si>
+    <t>Jelszó validálás és átírás</t>
+  </si>
+  <si>
+    <t>2024. április 19. 17:37</t>
+  </si>
+  <si>
+    <t>Sütik használata</t>
+  </si>
+  <si>
+    <t>Sütibe írja a felhasználói adatokat bejelentkezéskor és regisztrációkor</t>
+  </si>
+  <si>
+    <t>2024. április 20. 19:06</t>
+  </si>
+  <si>
+    <t>Profilkép feltöltése</t>
+  </si>
+  <si>
+    <t>Ennek megvalósítása és a behivatkozás kicsit nehezen ment</t>
+  </si>
+  <si>
+    <t>2024. április 21. 20:01</t>
+  </si>
+  <si>
+    <t>Felhasználók listázása, ha adminok vagyunk</t>
+  </si>
+  <si>
+    <t>2024. április 21. 23:14</t>
+  </si>
+  <si>
+    <t>Like és dislike funkciók megoldva</t>
+  </si>
+  <si>
+    <t>Lekezelni, hogy like-olta-e már korábban vagy nem, ugyanez dislike-nál</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,7 +288,7 @@
       <sz val="20"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,11 +296,162 @@
       <sz val="14"/>
       <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,28 +460,233 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.899990844447157"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -295,93 +705,330 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bevitel" xfId="1" builtinId="20"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFDE0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFDE0000"/>
         </patternFill>
       </fill>
@@ -391,9 +1038,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -442,7 +1086,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -475,26 +1119,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -527,23 +1154,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,321 +1315,395 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C4449-062A-45E5-9BFC-994ED91BB1C8}">
-  <dimension ref="A1:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="98.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.2833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="54.425" style="3" customWidth="1"/>
+    <col min="4" max="4" width="98.425" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.14166666666667" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="45" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="45" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="45" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="45" customHeight="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="45" customHeight="1" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="45" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" customHeight="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="45" customHeight="1" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="45" customHeight="1" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" customHeight="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="45" customHeight="1" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" customHeight="1">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="45" customHeight="1" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" customHeight="1">
-      <c r="A13" s="6" t="s">
+    <row r="13" ht="45" customHeight="1" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" customHeight="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" ht="45" customHeight="1" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="45" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" customHeight="1">
-      <c r="A16" s="6" t="s">
+    <row r="16" ht="45" customHeight="1" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="6" t="s">
+    <row r="17" ht="45" customHeight="1" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="6" t="s">
+    <row r="18" ht="45" customHeight="1" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="45" customHeight="1" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" customHeight="1">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="45" customHeight="1">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="45" customHeight="1">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="45" customHeight="1">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="45" customHeight="1">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="45" customHeight="1">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="45" customHeight="1">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="45" customHeight="1">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="22.5" customHeight="1"/>
-    <row r="29" spans="1:4" ht="22.5" customHeight="1"/>
-    <row r="30" spans="1:4" ht="22.5" customHeight="1"/>
-    <row r="31" spans="1:4" ht="22.5" customHeight="1"/>
-    <row r="32" spans="1:4" ht="22.5" customHeight="1"/>
+    <row r="20" ht="45" customHeight="1" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" ht="45" customHeight="1" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" ht="45" customHeight="1" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" ht="45" customHeight="1" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" ht="45" customHeight="1" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="3:4">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1"/>
+    <row r="30" ht="22.5" customHeight="1"/>
+    <row r="31" ht="22.5" customHeight="1"/>
+    <row r="32" ht="22.5" customHeight="1"/>
     <row r="33" ht="22.5" customHeight="1"/>
     <row r="34" ht="22.5" customHeight="1"/>
     <row r="35" ht="22.5" customHeight="1"/>
@@ -1038,12 +1722,13 @@
     <row r="48" ht="22.5" customHeight="1"/>
     <row r="49" ht="22.5" customHeight="1"/>
     <row r="50" ht="22.5" customHeight="1"/>
+    <row r="51" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>NOT(ISERROR(SEARCH("(todo)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1053,5 +1738,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>